--- a/1-repeated-measures-expected-values/cortisol-solution.xlsx
+++ b/1-repeated-measures-expected-values/cortisol-solution.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\1-repeated-measures-expected-values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05336596-3C62-49CB-9BCA-C43D29E0C306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606C4B2E-B3BD-4966-9028-3D603F43036B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
     <sheet name="cortisol" sheetId="1" r:id="rId2"/>
-    <sheet name="lookup" sheetId="3" r:id="rId3"/>
+    <sheet name="critical-values" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>cortisol_morning</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>critical value</t>
+  </si>
+  <si>
+    <t>Reject the null?</t>
+  </si>
+  <si>
+    <t>Sum ranks</t>
+  </si>
+  <si>
+    <t>Wilcoxon critical values source</t>
+  </si>
+  <si>
+    <t>https://users.sussex.ac.uk/~grahamh/RM1web/WilcoxonTable2005.pdf</t>
   </si>
 </sst>
 </file>
@@ -919,9 +931,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -933,6 +945,16 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -942,24 +964,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.19921875" customWidth="1"/>
+    <col min="1" max="1" width="2.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" customWidth="1"/>
+    <col min="8" max="8" width="28.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="D1" s="1" t="str">
         <f ca="1">IFERROR(_xlfn.FORMULATEXT(D3),"")</f>
         <v>=SIGN(B3-C3)</v>
@@ -973,7 +1001,7 @@
         <v>=RANK.AVG(E3,$E$3:$E$22,1)*D3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -992,11 +1020,14 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1029,8 +1060,16 @@
         <f>ABS(I3)</f>
         <v>197</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="K3" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(I3),"")</f>
+        <v>=SUMIF($F$3:$F$22,"&gt;0")</v>
+      </c>
+      <c r="L3" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(J3),"")</f>
+        <v>=ABS(I3)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1063,8 +1102,16 @@
         <f>ABS(I4)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(I4),"")</f>
+        <v>=SUMIF($F$3:$F$22,"&lt;0")</v>
+      </c>
+      <c r="L4" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(J4),"")</f>
+        <v>=ABS(I4)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1087,7 +1134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1116,8 +1163,12 @@
         <f>MIN(J3:J4)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(I6),"")</f>
+        <v>=MIN(J3:J4)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1143,11 +1194,15 @@
         <v>11</v>
       </c>
       <c r="I7">
-        <f>VLOOKUP(I6,lookup!$A$1:$B$27,2,FALSE)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(COUNT($A$3:$A$22),'critical-values'!$A$1:$B$22,2,FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="J7" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(I7),"")</f>
+        <v>=VLOOKUP(COUNT($A$3:$A$22),'critical-values'!$A$1:$B$22,2,FALSE)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1169,8 +1224,19 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="str">
+        <f>IF(I6&lt;I7,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J8" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(I8),"")</f>
+        <v>=IF(I6&lt;I7,"Yes","No")</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1193,7 +1259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1216,7 +1282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1239,7 +1305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1262,7 +1328,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1285,7 +1351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1308,7 +1374,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1331,7 +1397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1499,11 +1565,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1548,7 +1614,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1556,7 +1622,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1572,7 +1638,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1580,7 +1646,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1612,7 +1678,7 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1620,7 +1686,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1652,7 +1718,7 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1660,7 +1726,7 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1685,46 +1751,6 @@
       </c>
       <c r="B22">
         <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>29</v>
-      </c>
-      <c r="B26">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>30</v>
-      </c>
-      <c r="B27">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
